--- a/Project/project 1/tables.xlsx
+++ b/Project/project 1/tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="5700" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="21460" yWindow="500" windowWidth="28500" windowHeight="22200" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Strang1" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="23">
   <si>
     <t>Method</t>
   </si>
@@ -49,6 +49,48 @@
   </si>
   <si>
     <t>Runtime (s)</t>
+  </si>
+  <si>
+    <t>PCG iterations</t>
+  </si>
+  <si>
+    <t>CG Iterations</t>
+  </si>
+  <si>
+    <t>Strang Preconditioner with p=2</t>
+  </si>
+  <si>
+    <t>Strang Preconditioner with p=1</t>
+  </si>
+  <si>
+    <t>Strang Preconditioner with p=1/100</t>
+  </si>
+  <si>
+    <t>Strang Preconditioner with p=1/10</t>
+  </si>
+  <si>
+    <t>PCG runtime (s)</t>
+  </si>
+  <si>
+    <t>CG Runtime(s)</t>
+  </si>
+  <si>
+    <t>Chan Preconditioner with p=2</t>
+  </si>
+  <si>
+    <t>Chan Preconditioner with p=1</t>
+  </si>
+  <si>
+    <t>Chan Preconditioner with p=1/10</t>
+  </si>
+  <si>
+    <t>Chan Preconditioner with p=1/100</t>
+  </si>
+  <si>
+    <t>PCG method with Chan's preconditioner</t>
+  </si>
+  <si>
+    <t>PCG method with Strang's preconditioner</t>
   </si>
 </sst>
 </file>
@@ -107,7 +149,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -482,8 +524,90 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="79">
+  <cellStyleXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -563,8 +687,94 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -630,32 +840,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -681,8 +867,68 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="79">
+  <cellStyles count="165">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -722,6 +968,49 @@
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -761,6 +1050,49 @@
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1090,13 +1422,2192 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L30"/>
+  <dimension ref="A2:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="H19" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23:N53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="58"/>
+    <col min="11" max="11" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" ht="16" thickBot="1">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:17" ht="16" thickBot="1">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="36">
+        <v>50</v>
+      </c>
+      <c r="E7" s="22">
+        <v>4.5996299999999997E-4</v>
+      </c>
+      <c r="F7" s="22">
+        <v>5.3272900000000002E-4</v>
+      </c>
+      <c r="G7" s="23">
+        <v>6.1676500000000002E-4</v>
+      </c>
+      <c r="H7" s="14">
+        <v>7.5493900000000004E-4</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="58">
+        <v>7.5493900000000004E-4</v>
+      </c>
+      <c r="K7" s="1">
+        <v>4.6638300000000001E-4</v>
+      </c>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:17" ht="16" thickBot="1">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="37">
+        <v>50</v>
+      </c>
+      <c r="E8">
+        <v>4.6638300000000001E-4</v>
+      </c>
+      <c r="F8" s="3">
+        <v>4.46854E-4</v>
+      </c>
+      <c r="G8" s="3">
+        <v>4.6897099999999999E-4</v>
+      </c>
+      <c r="H8" s="4">
+        <v>5.7433699999999996E-4</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="58">
+        <v>1.653844E-3</v>
+      </c>
+      <c r="K8" s="1">
+        <v>6.3008599999999997E-4</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" ref="L8:N8" si="0">E10/E8</f>
+        <v>1.3510055040599678</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="0"/>
+        <v>1.828619638629172</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4908469820095485</v>
+      </c>
+      <c r="O8" s="1">
+        <f>H10/H8</f>
+        <v>1.3034194210019554</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="38">
+        <v>100</v>
+      </c>
+      <c r="E9" s="21">
+        <v>5.3301900000000003E-4</v>
+      </c>
+      <c r="F9" s="21">
+        <v>1.463598E-3</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1.1212139999999999E-3</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1.653844E-3</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="44">
+        <v>2.2455729999999998E-3</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1.326217E-3</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" ref="L9:N9" si="1">E12/E10</f>
+        <v>2.1048190247045642</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="1"/>
+        <v>3.8996152368178225</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="1"/>
+        <v>2.6489292926981367</v>
+      </c>
+      <c r="O9" s="1">
+        <f>H12/H10</f>
+        <v>2.1199769704061704</v>
+      </c>
+      <c r="Q9" s="1">
+        <f>J7</f>
+        <v>7.5493900000000004E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16" thickBot="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="39">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <v>6.3008599999999997E-4</v>
+      </c>
+      <c r="F10" s="16">
+        <v>8.1712600000000005E-4</v>
+      </c>
+      <c r="G10" s="16">
+        <v>6.9916399999999995E-4</v>
+      </c>
+      <c r="H10" s="17">
+        <v>7.4860200000000001E-4</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="44">
+        <v>4.2941480000000002E-3</v>
+      </c>
+      <c r="K10" s="1">
+        <v>4.0788170000000002E-3</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" ref="L10:N10" si="2">E14/E12</f>
+        <v>3.0755276097350586</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="2"/>
+        <v>1.1509303221080835</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="2"/>
+        <v>5.3207394456695223</v>
+      </c>
+      <c r="O10" s="1">
+        <f>H14/H12</f>
+        <v>2.7993634606769038</v>
+      </c>
+      <c r="Q10" s="1">
+        <f>K7</f>
+        <v>4.6638300000000001E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="36">
+        <v>200</v>
+      </c>
+      <c r="E11" s="22">
+        <v>7.5488300000000003E-4</v>
+      </c>
+      <c r="F11" s="22">
+        <v>1.471787E-3</v>
+      </c>
+      <c r="G11" s="13">
+        <v>2.0069469999999998E-3</v>
+      </c>
+      <c r="H11" s="14">
+        <v>2.2455729999999998E-3</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="44">
+        <v>1.5915268999999999E-2</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1.6797975E-2</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" ref="L11:N11" si="3">E16/E14</f>
+        <v>4.1183448534219602</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="3"/>
+        <v>4.5747844597813234</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="3"/>
+        <v>2.0026489210033365</v>
+      </c>
+      <c r="O11" s="1">
+        <f>H16/H14</f>
+        <v>4.5255430157228487</v>
+      </c>
+      <c r="Q11" s="1">
+        <f>J8</f>
+        <v>1.653844E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16" thickBot="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="37">
+        <v>200</v>
+      </c>
+      <c r="E12">
+        <v>1.326217E-3</v>
+      </c>
+      <c r="F12" s="3">
+        <v>3.1864770000000001E-3</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1.852036E-3</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1.5870190000000001E-3</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="44">
+        <v>0.26337327999999999</v>
+      </c>
+      <c r="K12" s="1">
+        <v>9.1472244999999994E-2</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" ref="L12:N12" si="4">E18/E16</f>
+        <v>5.4454328572342794</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="4"/>
+        <v>6.7388962227309417</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="4"/>
+        <v>6.490512227187863</v>
+      </c>
+      <c r="O12" s="1">
+        <f>H18/H16</f>
+        <v>5.6817946467242679</v>
+      </c>
+      <c r="Q12" s="1">
+        <f>K8</f>
+        <v>6.3008599999999997E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="38">
+        <v>400</v>
+      </c>
+      <c r="E13" s="21">
+        <v>1.0383580000000001E-3</v>
+      </c>
+      <c r="F13" s="21">
+        <v>2.0592789999999998E-3</v>
+      </c>
+      <c r="G13" s="6">
+        <v>4.0221440000000001E-3</v>
+      </c>
+      <c r="H13" s="7">
+        <v>4.2941480000000002E-3</v>
+      </c>
+      <c r="J13" s="44">
+        <v>1.5855061699999999</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.31538355899999998</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" ref="L13:N13" si="5">E20/E18</f>
+        <v>3.44786070353909</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="5"/>
+        <v>3.689988331869086</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="5"/>
+        <v>3.7131715411720867</v>
+      </c>
+      <c r="O13" s="1">
+        <f>H20/H18</f>
+        <v>3.7346335057256517</v>
+      </c>
+      <c r="Q13" s="1">
+        <f>J9</f>
+        <v>2.2455729999999998E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="16" thickBot="1">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="39">
+        <v>400</v>
+      </c>
+      <c r="E14" s="1">
+        <v>4.0788170000000002E-3</v>
+      </c>
+      <c r="F14" s="16">
+        <v>3.667413E-3</v>
+      </c>
+      <c r="G14" s="16">
+        <v>9.8542009999999999E-3</v>
+      </c>
+      <c r="H14" s="17">
+        <v>4.4426429999999996E-3</v>
+      </c>
+      <c r="J14" s="44"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="Q14" s="1">
+        <f>K9</f>
+        <v>1.326217E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="36">
+        <v>800</v>
+      </c>
+      <c r="E15" s="22">
+        <v>2.6239129999999999E-3</v>
+      </c>
+      <c r="F15" s="22">
+        <v>6.6029360000000002E-3</v>
+      </c>
+      <c r="G15" s="13">
+        <v>1.2925167E-2</v>
+      </c>
+      <c r="H15" s="14">
+        <v>1.5915268999999999E-2</v>
+      </c>
+      <c r="J15" s="44"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="Q15" s="1">
+        <f>J10</f>
+        <v>4.2941480000000002E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="16" thickBot="1">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="37">
+        <v>800</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1.6797975E-2</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1.6777624000000001E-2</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1.9734504999999999E-2</v>
+      </c>
+      <c r="H16" s="4">
+        <v>2.0105372E-2</v>
+      </c>
+      <c r="J16" s="44"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16">
+        <f>2*LN(2)</f>
+        <v>1.3862943611198906</v>
+      </c>
+      <c r="Q16" s="1">
+        <f>K10</f>
+        <v>4.0788170000000002E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="38">
+        <v>1600</v>
+      </c>
+      <c r="E17" s="21">
+        <v>3.1013789999999999E-2</v>
+      </c>
+      <c r="F17" s="21">
+        <v>8.0089572999999997E-2</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0.21352580400000001</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0.26337327999999999</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17">
+        <f>M16*2</f>
+        <v>2.7725887222397811</v>
+      </c>
+      <c r="Q17" s="1">
+        <f>J11</f>
+        <v>1.5915268999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="16" thickBot="1">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="39">
+        <v>1600</v>
+      </c>
+      <c r="E18" s="1">
+        <v>9.1472244999999994E-2</v>
+      </c>
+      <c r="F18" s="16">
+        <v>0.11306266700000001</v>
+      </c>
+      <c r="G18" s="16">
+        <v>0.12808704600000001</v>
+      </c>
+      <c r="H18" s="17">
+        <v>0.11423459499999999</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18">
+        <f>M16*4</f>
+        <v>5.5451774444795623</v>
+      </c>
+      <c r="Q18" s="1">
+        <f>K11</f>
+        <v>1.6797975E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="36">
+        <v>3200</v>
+      </c>
+      <c r="E19" s="22">
+        <v>0.12056457900000001</v>
+      </c>
+      <c r="F19" s="22">
+        <v>0.32945909000000001</v>
+      </c>
+      <c r="G19" s="13">
+        <v>1.244652737</v>
+      </c>
+      <c r="H19" s="14">
+        <v>1.5855061699999999</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="Q19" s="1">
+        <f>J12</f>
+        <v>0.26337327999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="16" thickBot="1">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="37">
+        <v>3200</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.31538355899999998</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.417199922</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.47560917400000002</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0.42662434599999999</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="Q20" s="1">
+        <f>K12</f>
+        <v>9.1472244999999994E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="16" thickBot="1">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="Q21">
+        <f>J13</f>
+        <v>1.5855061699999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="16" thickBot="1">
+      <c r="A22" s="1"/>
+      <c r="B22" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="Q22">
+        <f>K13</f>
+        <v>0.31538355899999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="16" thickBot="1">
+      <c r="A23" s="1"/>
+      <c r="B23" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="1:17" ht="16" thickBot="1">
+      <c r="A24" s="1"/>
+      <c r="B24" s="48">
+        <v>50</v>
+      </c>
+      <c r="C24" s="22">
+        <v>5</v>
+      </c>
+      <c r="D24" s="22">
+        <v>17</v>
+      </c>
+      <c r="E24" s="22">
+        <f>E8</f>
+        <v>4.6638300000000001E-4</v>
+      </c>
+      <c r="F24" s="49">
+        <f>E7</f>
+        <v>4.5996299999999997E-4</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K24" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="L24" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="M24" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="N24" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="1"/>
+      <c r="B25" s="50">
+        <v>100</v>
+      </c>
+      <c r="C25" s="51">
+        <v>5</v>
+      </c>
+      <c r="D25" s="51">
+        <v>19</v>
+      </c>
+      <c r="E25" s="51">
+        <f>E10</f>
+        <v>6.3008599999999997E-4</v>
+      </c>
+      <c r="F25" s="52">
+        <f>E9</f>
+        <v>5.3301900000000003E-4</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="48">
+        <v>50</v>
+      </c>
+      <c r="K25" s="22">
+        <v>6</v>
+      </c>
+      <c r="L25" s="22">
+        <v>24</v>
+      </c>
+      <c r="M25" s="22">
+        <f>F8</f>
+        <v>4.46854E-4</v>
+      </c>
+      <c r="N25" s="49">
+        <f>F7</f>
+        <v>5.3272900000000002E-4</v>
+      </c>
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="1"/>
+      <c r="B26" s="50">
+        <v>200</v>
+      </c>
+      <c r="C26" s="51">
+        <v>5</v>
+      </c>
+      <c r="D26" s="51">
+        <v>21</v>
+      </c>
+      <c r="E26" s="51">
+        <f>E12</f>
+        <v>1.326217E-3</v>
+      </c>
+      <c r="F26" s="52">
+        <f>E11</f>
+        <v>7.5488300000000003E-4</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="50">
+        <v>100</v>
+      </c>
+      <c r="K26" s="51">
+        <v>6</v>
+      </c>
+      <c r="L26" s="51">
+        <v>29</v>
+      </c>
+      <c r="M26" s="51">
+        <f>F10</f>
+        <v>8.1712600000000005E-4</v>
+      </c>
+      <c r="N26" s="52">
+        <f>F9</f>
+        <v>1.463598E-3</v>
+      </c>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="1"/>
+      <c r="B27" s="50">
+        <v>400</v>
+      </c>
+      <c r="C27" s="51">
+        <v>5</v>
+      </c>
+      <c r="D27" s="51">
+        <v>21</v>
+      </c>
+      <c r="E27" s="51">
+        <f>E14</f>
+        <v>4.0788170000000002E-3</v>
+      </c>
+      <c r="F27" s="52">
+        <f>E13</f>
+        <v>1.0383580000000001E-3</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="50">
+        <v>200</v>
+      </c>
+      <c r="K27" s="51">
+        <v>6</v>
+      </c>
+      <c r="L27" s="51">
+        <v>36</v>
+      </c>
+      <c r="M27" s="51">
+        <f>F12</f>
+        <v>3.1864770000000001E-3</v>
+      </c>
+      <c r="N27" s="52">
+        <f>F11</f>
+        <v>1.471787E-3</v>
+      </c>
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="1"/>
+      <c r="B28" s="50">
+        <v>800</v>
+      </c>
+      <c r="C28" s="51">
+        <v>5</v>
+      </c>
+      <c r="D28" s="51">
+        <v>21</v>
+      </c>
+      <c r="E28" s="51">
+        <f>E16</f>
+        <v>1.6797975E-2</v>
+      </c>
+      <c r="F28" s="52">
+        <f>E15</f>
+        <v>2.6239129999999999E-3</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="50">
+        <v>400</v>
+      </c>
+      <c r="K28" s="51">
+        <v>7</v>
+      </c>
+      <c r="L28" s="51">
+        <v>43</v>
+      </c>
+      <c r="M28" s="51">
+        <f>F14</f>
+        <v>3.667413E-3</v>
+      </c>
+      <c r="N28" s="52">
+        <f>F13</f>
+        <v>2.0592789999999998E-3</v>
+      </c>
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="1"/>
+      <c r="B29" s="50">
+        <v>1600</v>
+      </c>
+      <c r="C29" s="51">
+        <v>5</v>
+      </c>
+      <c r="D29" s="51">
+        <v>21</v>
+      </c>
+      <c r="E29" s="51">
+        <f>E18</f>
+        <v>9.1472244999999994E-2</v>
+      </c>
+      <c r="F29" s="52">
+        <f>E17</f>
+        <v>3.1013789999999999E-2</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="50">
+        <v>800</v>
+      </c>
+      <c r="K29" s="51">
+        <v>7</v>
+      </c>
+      <c r="L29" s="51">
+        <v>49</v>
+      </c>
+      <c r="M29" s="51">
+        <f>F16</f>
+        <v>1.6777624000000001E-2</v>
+      </c>
+      <c r="N29" s="52">
+        <f>F15</f>
+        <v>6.6029360000000002E-3</v>
+      </c>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="1:17" ht="16" thickBot="1">
+      <c r="A30" s="1"/>
+      <c r="B30" s="53">
+        <v>3200</v>
+      </c>
+      <c r="C30" s="27">
+        <v>5</v>
+      </c>
+      <c r="D30" s="27">
+        <v>21</v>
+      </c>
+      <c r="E30" s="27">
+        <f>E20</f>
+        <v>0.31538355899999998</v>
+      </c>
+      <c r="F30" s="54">
+        <f>E19</f>
+        <v>0.12056457900000001</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="50">
+        <v>1600</v>
+      </c>
+      <c r="K30" s="51">
+        <v>7</v>
+      </c>
+      <c r="L30" s="51">
+        <v>56</v>
+      </c>
+      <c r="M30" s="51">
+        <f>F18</f>
+        <v>0.11306266700000001</v>
+      </c>
+      <c r="N30" s="52">
+        <f>F17</f>
+        <v>8.0089572999999997E-2</v>
+      </c>
+      <c r="O30" s="1"/>
+    </row>
+    <row r="31" spans="1:17" ht="16" thickBot="1">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="53">
+        <v>3200</v>
+      </c>
+      <c r="K31" s="27">
+        <v>7</v>
+      </c>
+      <c r="L31" s="27">
+        <v>62</v>
+      </c>
+      <c r="M31" s="27">
+        <f>F20</f>
+        <v>0.417199922</v>
+      </c>
+      <c r="N31" s="54">
+        <f>F19</f>
+        <v>0.32945909000000001</v>
+      </c>
+      <c r="O31" s="1"/>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" spans="1:15" ht="16" thickBot="1">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+    </row>
+    <row r="34" spans="1:15" ht="16" thickBot="1">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="60"/>
+      <c r="N34" s="61"/>
+      <c r="O34" s="1"/>
+    </row>
+    <row r="35" spans="1:15" ht="16" thickBot="1">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K35" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="L35" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="M35" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="N35" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="O35" s="1"/>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="48">
+        <v>50</v>
+      </c>
+      <c r="K36" s="22">
+        <v>8</v>
+      </c>
+      <c r="L36" s="22">
+        <v>32</v>
+      </c>
+      <c r="M36" s="22">
+        <f>G8</f>
+        <v>4.6897099999999999E-4</v>
+      </c>
+      <c r="N36" s="49">
+        <f>G7</f>
+        <v>6.1676500000000002E-4</v>
+      </c>
+      <c r="O36" s="1"/>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="50">
+        <v>100</v>
+      </c>
+      <c r="K37" s="51">
+        <v>7</v>
+      </c>
+      <c r="L37" s="51">
+        <v>41</v>
+      </c>
+      <c r="M37" s="51">
+        <f>G10</f>
+        <v>6.9916399999999995E-4</v>
+      </c>
+      <c r="N37" s="52">
+        <f>G9</f>
+        <v>1.1212139999999999E-3</v>
+      </c>
+      <c r="O37" s="1"/>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="50">
+        <v>200</v>
+      </c>
+      <c r="K38" s="51">
+        <v>7</v>
+      </c>
+      <c r="L38" s="51">
+        <v>61</v>
+      </c>
+      <c r="M38" s="51">
+        <f>G12</f>
+        <v>1.852036E-3</v>
+      </c>
+      <c r="N38" s="52">
+        <f>G11</f>
+        <v>2.0069469999999998E-3</v>
+      </c>
+      <c r="O38" s="1"/>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="50">
+        <v>400</v>
+      </c>
+      <c r="K39" s="51">
+        <v>8</v>
+      </c>
+      <c r="L39" s="51">
+        <v>83</v>
+      </c>
+      <c r="M39" s="51">
+        <f>G14</f>
+        <v>9.8542009999999999E-3</v>
+      </c>
+      <c r="N39" s="52">
+        <f>G13</f>
+        <v>4.0221440000000001E-3</v>
+      </c>
+      <c r="O39" s="1"/>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="50">
+        <v>800</v>
+      </c>
+      <c r="K40" s="51">
+        <v>8</v>
+      </c>
+      <c r="L40" s="51">
+        <v>126</v>
+      </c>
+      <c r="M40" s="51">
+        <f>G16</f>
+        <v>1.9734504999999999E-2</v>
+      </c>
+      <c r="N40" s="52">
+        <f>G15</f>
+        <v>1.2925167E-2</v>
+      </c>
+      <c r="O40" s="1"/>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="C41" s="1">
+        <f>F8</f>
+        <v>4.46854E-4</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="50">
+        <v>1600</v>
+      </c>
+      <c r="K41" s="51">
+        <v>8</v>
+      </c>
+      <c r="L41" s="51">
+        <v>165</v>
+      </c>
+      <c r="M41" s="51">
+        <f>G18</f>
+        <v>0.12808704600000001</v>
+      </c>
+      <c r="N41" s="52">
+        <f>G17</f>
+        <v>0.21352580400000001</v>
+      </c>
+      <c r="O41" s="1"/>
+    </row>
+    <row r="42" spans="1:15" ht="16" thickBot="1">
+      <c r="C42" s="1">
+        <f>F10</f>
+        <v>8.1712600000000005E-4</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="53">
+        <v>3200</v>
+      </c>
+      <c r="K42" s="27">
+        <v>8</v>
+      </c>
+      <c r="L42" s="27">
+        <v>207</v>
+      </c>
+      <c r="M42" s="27">
+        <f>G20</f>
+        <v>0.47560917400000002</v>
+      </c>
+      <c r="N42" s="54">
+        <f>G19</f>
+        <v>1.244652737</v>
+      </c>
+      <c r="O42" s="1"/>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="C43" s="1">
+        <f>F12</f>
+        <v>3.1864770000000001E-3</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+    </row>
+    <row r="44" spans="1:15" ht="16" thickBot="1">
+      <c r="C44" s="1">
+        <f>F14</f>
+        <v>3.667413E-3</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+    </row>
+    <row r="45" spans="1:15" ht="16" thickBot="1">
+      <c r="C45" s="1">
+        <f>F16</f>
+        <v>1.6777624000000001E-2</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="K45" s="60"/>
+      <c r="L45" s="60"/>
+      <c r="M45" s="60"/>
+      <c r="N45" s="61"/>
+      <c r="O45" s="1"/>
+    </row>
+    <row r="46" spans="1:15" ht="16" thickBot="1">
+      <c r="C46" s="1">
+        <f>F18</f>
+        <v>0.11306266700000001</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K46" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="L46" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="M46" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="N46" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="O46" s="1"/>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="C47" s="1">
+        <f>F20</f>
+        <v>0.417199922</v>
+      </c>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="48">
+        <v>50</v>
+      </c>
+      <c r="K47" s="22">
+        <v>8</v>
+      </c>
+      <c r="L47" s="22">
+        <v>33</v>
+      </c>
+      <c r="M47" s="22">
+        <f>H8</f>
+        <v>5.7433699999999996E-4</v>
+      </c>
+      <c r="N47" s="49">
+        <f>H7</f>
+        <v>7.5493900000000004E-4</v>
+      </c>
+      <c r="O47" s="1"/>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="C48" s="1">
+        <f>F7</f>
+        <v>5.3272900000000002E-4</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="50">
+        <v>100</v>
+      </c>
+      <c r="K48" s="51">
+        <v>7</v>
+      </c>
+      <c r="L48" s="51">
+        <v>48</v>
+      </c>
+      <c r="M48" s="51">
+        <f>H10</f>
+        <v>7.4860200000000001E-4</v>
+      </c>
+      <c r="N48" s="52">
+        <f>H9</f>
+        <v>1.653844E-3</v>
+      </c>
+      <c r="O48" s="1"/>
+    </row>
+    <row r="49" spans="3:15">
+      <c r="C49" s="1">
+        <f>F9</f>
+        <v>1.463598E-3</v>
+      </c>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="50">
+        <v>200</v>
+      </c>
+      <c r="K49" s="51">
+        <v>7</v>
+      </c>
+      <c r="L49" s="51">
+        <v>66</v>
+      </c>
+      <c r="M49" s="51">
+        <f>H12</f>
+        <v>1.5870190000000001E-3</v>
+      </c>
+      <c r="N49" s="52">
+        <f>H11</f>
+        <v>2.2455729999999998E-3</v>
+      </c>
+      <c r="O49" s="1"/>
+    </row>
+    <row r="50" spans="3:15">
+      <c r="C50" s="1">
+        <f>F11</f>
+        <v>1.471787E-3</v>
+      </c>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="50">
+        <v>400</v>
+      </c>
+      <c r="K50" s="51">
+        <v>7</v>
+      </c>
+      <c r="L50" s="51">
+        <v>90</v>
+      </c>
+      <c r="M50" s="51">
+        <f>H14</f>
+        <v>4.4426429999999996E-3</v>
+      </c>
+      <c r="N50" s="52">
+        <f>H13</f>
+        <v>4.2941480000000002E-3</v>
+      </c>
+      <c r="O50" s="1"/>
+    </row>
+    <row r="51" spans="3:15">
+      <c r="C51" s="1">
+        <f>F13</f>
+        <v>2.0592789999999998E-3</v>
+      </c>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="50">
+        <v>800</v>
+      </c>
+      <c r="K51" s="51">
+        <v>7</v>
+      </c>
+      <c r="L51" s="51">
+        <v>136</v>
+      </c>
+      <c r="M51" s="51">
+        <f>H16</f>
+        <v>2.0105372E-2</v>
+      </c>
+      <c r="N51" s="52">
+        <f>H15</f>
+        <v>1.5915268999999999E-2</v>
+      </c>
+      <c r="O51" s="1"/>
+    </row>
+    <row r="52" spans="3:15">
+      <c r="C52" s="1">
+        <f>F15</f>
+        <v>6.6029360000000002E-3</v>
+      </c>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="50">
+        <v>1600</v>
+      </c>
+      <c r="K52" s="51">
+        <v>8</v>
+      </c>
+      <c r="L52" s="51">
+        <v>224</v>
+      </c>
+      <c r="M52" s="51">
+        <f>H18</f>
+        <v>0.11423459499999999</v>
+      </c>
+      <c r="N52" s="52">
+        <f>H17</f>
+        <v>0.26337327999999999</v>
+      </c>
+      <c r="O52" s="1"/>
+    </row>
+    <row r="53" spans="3:15" ht="16" thickBot="1">
+      <c r="C53" s="1">
+        <f>F17</f>
+        <v>8.0089572999999997E-2</v>
+      </c>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="53">
+        <v>3200</v>
+      </c>
+      <c r="K53" s="27">
+        <v>7</v>
+      </c>
+      <c r="L53" s="27">
+        <v>265</v>
+      </c>
+      <c r="M53" s="27">
+        <f>H20</f>
+        <v>0.42662434599999999</v>
+      </c>
+      <c r="N53" s="54">
+        <f>H19</f>
+        <v>1.5855061699999999</v>
+      </c>
+      <c r="O53" s="1"/>
+    </row>
+    <row r="54" spans="3:15">
+      <c r="C54" s="1">
+        <f>F19</f>
+        <v>0.32945909000000001</v>
+      </c>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="44"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+    </row>
+    <row r="55" spans="3:15">
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="44"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+    </row>
+    <row r="56" spans="3:15">
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="44"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B22:F22"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:M29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8:K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" ht="16" thickBot="1">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" ht="16" thickBot="1">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" ht="16" thickBot="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="13">
+        <v>50</v>
+      </c>
+      <c r="E7" s="14">
+        <v>2.1680399999999999E-4</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" ht="16" thickBot="1">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3">
+        <v>50</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4.5030899999999997E-4</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="62">
+        <v>50</v>
+      </c>
+      <c r="I8" s="22">
+        <v>1</v>
+      </c>
+      <c r="J8" s="22">
+        <v>2</v>
+      </c>
+      <c r="K8" s="22">
+        <v>6.0182499999999995E-4</v>
+      </c>
+      <c r="L8" s="49">
+        <v>3.8306672999999999E-2</v>
+      </c>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="6">
+        <v>100</v>
+      </c>
+      <c r="E9" s="7">
+        <v>2.2856499999999999E-4</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="57">
+        <v>100</v>
+      </c>
+      <c r="I9" s="51">
+        <v>1</v>
+      </c>
+      <c r="J9" s="51">
+        <v>2</v>
+      </c>
+      <c r="K9" s="51">
+        <v>4.4920799999999999E-4</v>
+      </c>
+      <c r="L9" s="52">
+        <v>5.6043424000000001E-2</v>
+      </c>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" ht="16" thickBot="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="16">
+        <v>100</v>
+      </c>
+      <c r="E10" s="17">
+        <v>2.0414599999999999E-4</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="57">
+        <v>200</v>
+      </c>
+      <c r="I10" s="51">
+        <v>1</v>
+      </c>
+      <c r="J10" s="51">
+        <v>2</v>
+      </c>
+      <c r="K10" s="51">
+        <v>5.4530900000000001E-4</v>
+      </c>
+      <c r="L10" s="52">
+        <v>4.6049899999999998E-2</v>
+      </c>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="13">
+        <v>200</v>
+      </c>
+      <c r="E11" s="14">
+        <v>3.3935299999999997E-4</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="57">
+        <v>400</v>
+      </c>
+      <c r="I11" s="51">
+        <v>1</v>
+      </c>
+      <c r="J11" s="51">
+        <v>2</v>
+      </c>
+      <c r="K11" s="51">
+        <v>8.9222499999999996E-4</v>
+      </c>
+      <c r="L11" s="52">
+        <v>5.4721165000000002E-2</v>
+      </c>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" ht="16" thickBot="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="3">
+        <v>200</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1.5246899999999999E-4</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="57">
+        <v>800</v>
+      </c>
+      <c r="I12" s="51">
+        <v>1</v>
+      </c>
+      <c r="J12" s="51">
+        <v>2</v>
+      </c>
+      <c r="K12" s="51">
+        <v>6.5365270000000003E-3</v>
+      </c>
+      <c r="L12" s="52">
+        <v>7.5608574999999997E-2</v>
+      </c>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="6">
+        <v>400</v>
+      </c>
+      <c r="E13" s="7">
+        <v>4.6289299999999997E-4</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="57">
+        <v>1600</v>
+      </c>
+      <c r="I13" s="51">
+        <v>1</v>
+      </c>
+      <c r="J13" s="51">
+        <v>2</v>
+      </c>
+      <c r="K13" s="51">
+        <v>3.1366864000000001E-2</v>
+      </c>
+      <c r="L13" s="52">
+        <v>0.226161309</v>
+      </c>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" ht="16" thickBot="1">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="16">
+        <v>400</v>
+      </c>
+      <c r="E14" s="17">
+        <v>2.6841799999999998E-4</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="63">
+        <v>3200</v>
+      </c>
+      <c r="I14" s="27">
+        <v>1</v>
+      </c>
+      <c r="J14" s="27">
+        <v>2</v>
+      </c>
+      <c r="K14" s="27">
+        <v>0.113667026</v>
+      </c>
+      <c r="L14" s="54">
+        <v>1.1376215009999999</v>
+      </c>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="13">
+        <v>800</v>
+      </c>
+      <c r="E15" s="14">
+        <v>1.167829E-3</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" ht="16" thickBot="1">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="3">
+        <v>800</v>
+      </c>
+      <c r="E16" s="4">
+        <v>8.5393999999999997E-4</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1600</v>
+      </c>
+      <c r="E17" s="7">
+        <v>5.2479969999999999E-3</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="str">
+        <f>H6</f>
+        <v>PCG method with Strang's preconditioner</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" ht="16" thickBot="1">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="16">
+        <v>1600</v>
+      </c>
+      <c r="E18" s="17">
+        <v>4.9652029999999996E-3</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1">
+        <f>G7</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="13">
+        <v>3200</v>
+      </c>
+      <c r="E19" s="14">
+        <v>1.79939E-2</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1" t="str">
+        <f>H7</f>
+        <v>n</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" ht="16" thickBot="1">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1.130885E-2</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1">
+        <f>G8</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1">
+        <f>H8</f>
+        <v>50</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1">
+        <f>G9</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1">
+        <f>H9</f>
+        <v>100</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1">
+        <f>G10</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1">
+        <f>H10</f>
+        <v>200</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1">
+        <f>G11</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1">
+        <f>H11</f>
+        <v>400</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28">
+        <f>G12</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29">
+        <f>H12</f>
+        <v>800</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H6:L6"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:P65"/>
+  <sheetViews>
+    <sheetView topLeftCell="E29" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45:O45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:12">
       <c r="A2" s="1"/>
@@ -1161,1161 +3672,6 @@
     <row r="6" spans="1:12" ht="16" thickBot="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="25">
-        <v>50</v>
-      </c>
-      <c r="E7" s="22">
-        <v>4.5996299999999997E-4</v>
-      </c>
-      <c r="F7" s="22">
-        <v>5.3272900000000002E-4</v>
-      </c>
-      <c r="G7" s="23">
-        <v>6.1676500000000002E-4</v>
-      </c>
-      <c r="H7" s="14">
-        <v>7.5493900000000004E-4</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7">
-        <v>7.5493900000000004E-4</v>
-      </c>
-      <c r="K7" s="1">
-        <v>5.7433699999999996E-4</v>
-      </c>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" ht="16" thickBot="1">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="26">
-        <v>50</v>
-      </c>
-      <c r="E8" s="3">
-        <v>6.4695699999999998E-4</v>
-      </c>
-      <c r="F8" s="3">
-        <v>4.46854E-4</v>
-      </c>
-      <c r="G8" s="3">
-        <v>4.6897099999999999E-4</v>
-      </c>
-      <c r="H8" s="4">
-        <v>5.7433699999999996E-4</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8">
-        <v>1.653844E-3</v>
-      </c>
-      <c r="K8" s="1">
-        <v>7.4860200000000001E-4</v>
-      </c>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="27">
-        <v>100</v>
-      </c>
-      <c r="E9" s="21">
-        <v>5.3301900000000003E-4</v>
-      </c>
-      <c r="F9" s="21">
-        <v>1.463598E-3</v>
-      </c>
-      <c r="G9" s="6">
-        <v>1.1212139999999999E-3</v>
-      </c>
-      <c r="H9" s="7">
-        <v>1.653844E-3</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1">
-        <v>2.2455729999999998E-3</v>
-      </c>
-      <c r="K9" s="1">
-        <v>1.5870190000000001E-3</v>
-      </c>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" ht="16" thickBot="1">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="28">
-        <v>100</v>
-      </c>
-      <c r="E10" s="16">
-        <v>5.8510799999999998E-4</v>
-      </c>
-      <c r="F10" s="16">
-        <v>8.1712600000000005E-4</v>
-      </c>
-      <c r="G10" s="16">
-        <v>6.9916399999999995E-4</v>
-      </c>
-      <c r="H10" s="17">
-        <v>7.4860200000000001E-4</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1">
-        <v>4.2941480000000002E-3</v>
-      </c>
-      <c r="K10" s="1">
-        <v>4.4426429999999996E-3</v>
-      </c>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="25">
-        <v>200</v>
-      </c>
-      <c r="E11" s="22">
-        <v>7.5488300000000003E-4</v>
-      </c>
-      <c r="F11" s="22">
-        <v>1.471787E-3</v>
-      </c>
-      <c r="G11" s="13">
-        <v>2.0069469999999998E-3</v>
-      </c>
-      <c r="H11" s="14">
-        <v>2.2455729999999998E-3</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1">
-        <v>1.5915268999999999E-2</v>
-      </c>
-      <c r="K11" s="1">
-        <v>2.0105372E-2</v>
-      </c>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" ht="16" thickBot="1">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="26">
-        <v>200</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1.0162820000000001E-3</v>
-      </c>
-      <c r="F12" s="3">
-        <v>3.1864770000000001E-3</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1.852036E-3</v>
-      </c>
-      <c r="H12" s="4">
-        <v>1.5870190000000001E-3</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1">
-        <v>0.26337327999999999</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0.11423459499999999</v>
-      </c>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="27">
-        <v>400</v>
-      </c>
-      <c r="E13" s="21">
-        <v>1.0383580000000001E-3</v>
-      </c>
-      <c r="F13" s="21">
-        <v>2.0592789999999998E-3</v>
-      </c>
-      <c r="G13" s="6">
-        <v>4.0221440000000001E-3</v>
-      </c>
-      <c r="H13" s="7">
-        <v>4.2941480000000002E-3</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1">
-        <v>1.5855061699999999</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0.47670497499999998</v>
-      </c>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" ht="16" thickBot="1">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="28">
-        <v>400</v>
-      </c>
-      <c r="E14" s="16">
-        <v>3.7420869999999998E-3</v>
-      </c>
-      <c r="F14" s="16">
-        <v>3.667413E-3</v>
-      </c>
-      <c r="G14" s="16">
-        <v>9.8542009999999999E-3</v>
-      </c>
-      <c r="H14" s="17">
-        <v>4.4426429999999996E-3</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="25">
-        <v>800</v>
-      </c>
-      <c r="E15" s="22">
-        <v>2.6239129999999999E-3</v>
-      </c>
-      <c r="F15" s="22">
-        <v>6.6029360000000002E-3</v>
-      </c>
-      <c r="G15" s="13">
-        <v>1.2925167E-2</v>
-      </c>
-      <c r="H15" s="14">
-        <v>1.5915268999999999E-2</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" ht="16" thickBot="1">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="26">
-        <v>800</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1.5857749000000001E-2</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1.6777624000000001E-2</v>
-      </c>
-      <c r="G16" s="3">
-        <v>1.9734504999999999E-2</v>
-      </c>
-      <c r="H16" s="4">
-        <v>2.0105372E-2</v>
-      </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="27">
-        <v>1600</v>
-      </c>
-      <c r="E17" s="21">
-        <v>3.1013789999999999E-2</v>
-      </c>
-      <c r="F17" s="21">
-        <v>8.0089572999999997E-2</v>
-      </c>
-      <c r="G17" s="6">
-        <v>0.21352580400000001</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0.26337327999999999</v>
-      </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1">
-        <f>J7</f>
-        <v>7.5493900000000004E-4</v>
-      </c>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" ht="16" thickBot="1">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="28">
-        <v>1600</v>
-      </c>
-      <c r="E18" s="16">
-        <v>8.5999509000000002E-2</v>
-      </c>
-      <c r="F18" s="16">
-        <v>0.11306266700000001</v>
-      </c>
-      <c r="G18" s="16">
-        <v>0.12808704600000001</v>
-      </c>
-      <c r="H18" s="17">
-        <v>0.11423459499999999</v>
-      </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1">
-        <f>K7</f>
-        <v>5.7433699999999996E-4</v>
-      </c>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="25">
-        <v>3200</v>
-      </c>
-      <c r="E19" s="22">
-        <v>0.12056457900000001</v>
-      </c>
-      <c r="F19" s="22">
-        <v>0.32945909000000001</v>
-      </c>
-      <c r="G19" s="13">
-        <v>1.244652737</v>
-      </c>
-      <c r="H19" s="14">
-        <v>1.5855061699999999</v>
-      </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1">
-        <f>J8</f>
-        <v>1.653844E-3</v>
-      </c>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" ht="16" thickBot="1">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="26">
-        <v>3200</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0.318222805</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0.42476940600000002</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0.47560917400000002</v>
-      </c>
-      <c r="H20" s="4">
-        <v>0.47670497499999998</v>
-      </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1">
-        <f>K8</f>
-        <v>7.4860200000000001E-4</v>
-      </c>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1">
-        <f>J9</f>
-        <v>2.2455729999999998E-3</v>
-      </c>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1">
-        <f>K9</f>
-        <v>1.5870190000000001E-3</v>
-      </c>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1">
-        <f>J10</f>
-        <v>4.2941480000000002E-3</v>
-      </c>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1">
-        <f>K10</f>
-        <v>4.4426429999999996E-3</v>
-      </c>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1">
-        <f>J11</f>
-        <v>1.5915268999999999E-2</v>
-      </c>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1">
-        <f>K11</f>
-        <v>2.0105372E-2</v>
-      </c>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1">
-        <f>J12</f>
-        <v>0.26337327999999999</v>
-      </c>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1">
-        <f>K12</f>
-        <v>0.11423459499999999</v>
-      </c>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="J29">
-        <f>J13</f>
-        <v>1.5855061699999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="J30">
-        <f>K13</f>
-        <v>0.47670497499999998</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I29"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:H29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" ht="16" thickBot="1">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" ht="16" thickBot="1">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6">
-        <v>2.1680399999999999E-4</v>
-      </c>
-      <c r="H6" s="1">
-        <v>4.5030899999999997E-4</v>
-      </c>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="13">
-        <v>50</v>
-      </c>
-      <c r="E7" s="14">
-        <v>2.1680399999999999E-4</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7">
-        <v>2.2856499999999999E-4</v>
-      </c>
-      <c r="H7" s="1">
-        <v>2.0414599999999999E-4</v>
-      </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" ht="16" thickBot="1">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="3">
-        <v>50</v>
-      </c>
-      <c r="E8" s="4">
-        <v>4.5030899999999997E-4</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1">
-        <v>3.3935299999999997E-4</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1.5246899999999999E-4</v>
-      </c>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="6">
-        <v>100</v>
-      </c>
-      <c r="E9" s="7">
-        <v>2.2856499999999999E-4</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1">
-        <v>4.6289299999999997E-4</v>
-      </c>
-      <c r="H9" s="1">
-        <v>2.6841799999999998E-4</v>
-      </c>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" ht="16" thickBot="1">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="16">
-        <v>100</v>
-      </c>
-      <c r="E10" s="17">
-        <v>2.0414599999999999E-4</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1">
-        <v>1.167829E-3</v>
-      </c>
-      <c r="H10" s="1">
-        <v>8.5393999999999997E-4</v>
-      </c>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="13">
-        <v>200</v>
-      </c>
-      <c r="E11" s="14">
-        <v>3.3935299999999997E-4</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1">
-        <v>5.2479969999999999E-3</v>
-      </c>
-      <c r="H11" s="1">
-        <v>4.9652029999999996E-3</v>
-      </c>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" ht="16" thickBot="1">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="3">
-        <v>200</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1.5246899999999999E-4</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1">
-        <v>1.79939E-2</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1.130885E-2</v>
-      </c>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="6">
-        <v>400</v>
-      </c>
-      <c r="E13" s="7">
-        <v>4.6289299999999997E-4</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" ht="16" thickBot="1">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="16">
-        <v>400</v>
-      </c>
-      <c r="E14" s="17">
-        <v>2.6841799999999998E-4</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="13">
-        <v>800</v>
-      </c>
-      <c r="E15" s="14">
-        <v>1.167829E-3</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" ht="16" thickBot="1">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="3">
-        <v>800</v>
-      </c>
-      <c r="E16" s="4">
-        <v>8.5393999999999997E-4</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1">
-        <f>G6</f>
-        <v>2.1680399999999999E-4</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="6">
-        <v>1600</v>
-      </c>
-      <c r="E17" s="7">
-        <v>5.2479969999999999E-3</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1">
-        <f>H6</f>
-        <v>4.5030899999999997E-4</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" ht="16" thickBot="1">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="16">
-        <v>1600</v>
-      </c>
-      <c r="E18" s="17">
-        <v>4.9652029999999996E-3</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1">
-        <f>G7</f>
-        <v>2.2856499999999999E-4</v>
-      </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="13">
-        <v>3200</v>
-      </c>
-      <c r="E19" s="14">
-        <v>1.79939E-2</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1">
-        <f>H7</f>
-        <v>2.0414599999999999E-4</v>
-      </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" ht="16" thickBot="1">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="3">
-        <v>3200</v>
-      </c>
-      <c r="E20" s="4">
-        <v>1.130885E-2</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1">
-        <f>G8</f>
-        <v>3.3935299999999997E-4</v>
-      </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1">
-        <f>H8</f>
-        <v>1.5246899999999999E-4</v>
-      </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1">
-        <f>G9</f>
-        <v>4.6289299999999997E-4</v>
-      </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1">
-        <f>H9</f>
-        <v>2.6841799999999998E-4</v>
-      </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1">
-        <f>G10</f>
-        <v>1.167829E-3</v>
-      </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1">
-        <f>H10</f>
-        <v>8.5393999999999997E-4</v>
-      </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1">
-        <f>G11</f>
-        <v>5.2479969999999999E-3</v>
-      </c>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1">
-        <f>H11</f>
-        <v>4.9652029999999996E-3</v>
-      </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28">
-        <f>G12</f>
-        <v>1.79939E-2</v>
-      </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29">
-        <f>H12</f>
-        <v>1.130885E-2</v>
-      </c>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L31"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:K30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" ht="16" thickBot="1">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" ht="16" thickBot="1">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
       <c r="C6" s="8" t="s">
         <v>0</v>
       </c>
@@ -2378,7 +3734,7 @@
       <c r="D8" s="3">
         <v>50</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="27">
         <v>6.4841400000000004E-4</v>
       </c>
       <c r="F8" s="3">
@@ -2438,7 +3794,7 @@
       <c r="D10" s="16">
         <v>100</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="28">
         <v>6.1619699999999997E-4</v>
       </c>
       <c r="F10" s="16">
@@ -2498,7 +3854,7 @@
       <c r="D12" s="3">
         <v>200</v>
       </c>
-      <c r="E12" s="35">
+      <c r="E12" s="27">
         <v>1.3387270000000001E-3</v>
       </c>
       <c r="F12" s="3">
@@ -2558,7 +3914,7 @@
       <c r="D14" s="16">
         <v>400</v>
       </c>
-      <c r="E14" s="36">
+      <c r="E14" s="28">
         <v>2.3677720000000002E-3</v>
       </c>
       <c r="F14" s="16">
@@ -2610,7 +3966,7 @@
       <c r="D16" s="3">
         <v>800</v>
       </c>
-      <c r="E16" s="35">
+      <c r="E16" s="27">
         <v>1.2801442E-2</v>
       </c>
       <c r="F16" s="3">
@@ -2627,7 +3983,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:16">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="5" t="s">
@@ -2656,7 +4012,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" ht="16" thickBot="1">
+    <row r="18" spans="1:16" ht="16" thickBot="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="15" t="s">
@@ -2665,7 +4021,7 @@
       <c r="D18" s="16">
         <v>1600</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="28">
         <v>8.5804019999999995E-2</v>
       </c>
       <c r="F18" s="16">
@@ -2685,25 +4041,25 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:16">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="38">
+      <c r="D19" s="30">
         <v>3200</v>
       </c>
-      <c r="E19" s="39">
+      <c r="E19" s="31">
         <v>0.120057572</v>
       </c>
-      <c r="F19" s="38">
+      <c r="F19" s="30">
         <v>0.32713635499999999</v>
       </c>
-      <c r="G19" s="38">
+      <c r="G19" s="30">
         <v>1.2431383119999999</v>
       </c>
-      <c r="H19" s="40">
+      <c r="H19" s="32">
         <v>1.585495214</v>
       </c>
       <c r="I19" s="1"/>
@@ -2714,25 +4070,25 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" ht="16" thickBot="1">
+    <row r="20" spans="1:16" ht="16" thickBot="1">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="42">
+      <c r="D20" s="34">
         <v>3200</v>
       </c>
-      <c r="E20" s="42">
+      <c r="E20" s="34">
         <v>0.32182912600000002</v>
       </c>
-      <c r="F20" s="42">
+      <c r="F20" s="34">
         <v>0.423461174</v>
       </c>
-      <c r="G20" s="42">
+      <c r="G20" s="34">
         <v>0.47119647799999997</v>
       </c>
-      <c r="H20" s="43">
+      <c r="H20" s="35">
         <v>0.47268185000000001</v>
       </c>
       <c r="I20" s="1"/>
@@ -2743,15 +4099,15 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:16">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1">
         <f>J9</f>
@@ -2760,15 +4116,15 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:16">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1">
         <f>K9</f>
@@ -2777,7 +4133,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:16">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2794,7 +4150,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:16">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2811,7 +4167,7 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:16">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2828,7 +4184,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:16">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2845,7 +4201,7 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:16">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2862,7 +4218,7 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:16">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2879,7 +4235,7 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:16">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2895,7 +4251,7 @@
       </c>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:16">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2912,7 +4268,7 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:16" ht="16" thickBot="1">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2923,10 +4279,841 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
+      <c r="K31" s="44"/>
       <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+    </row>
+    <row r="32" spans="1:16" ht="16" thickBot="1">
+      <c r="B32" s="1"/>
+      <c r="C32" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+    </row>
+    <row r="33" spans="2:16" ht="16" thickBot="1">
+      <c r="B33" s="1"/>
+      <c r="C33" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="47"/>
+      <c r="P33" s="1"/>
+    </row>
+    <row r="34" spans="2:16" ht="16" thickBot="1">
+      <c r="B34" s="1"/>
+      <c r="C34" s="48">
+        <v>50</v>
+      </c>
+      <c r="D34" s="22">
+        <v>5</v>
+      </c>
+      <c r="E34" s="22">
+        <v>17</v>
+      </c>
+      <c r="F34" s="22">
+        <v>4.6284100000000002E-4</v>
+      </c>
+      <c r="G34" s="49">
+        <v>4.5996299999999997E-4</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L34" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="M34" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="N34" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="O34" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="P34" s="1"/>
+    </row>
+    <row r="35" spans="2:16">
+      <c r="B35" s="1"/>
+      <c r="C35" s="50">
+        <v>100</v>
+      </c>
+      <c r="D35" s="51">
+        <v>5</v>
+      </c>
+      <c r="E35" s="51">
+        <v>19</v>
+      </c>
+      <c r="F35" s="51">
+        <v>7.0711199999999997E-4</v>
+      </c>
+      <c r="G35" s="52">
+        <v>5.3301900000000003E-4</v>
+      </c>
+      <c r="H35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="48">
+        <v>50</v>
+      </c>
+      <c r="L35" s="22">
+        <v>6</v>
+      </c>
+      <c r="M35" s="22">
+        <v>24</v>
+      </c>
+      <c r="N35" s="22">
+        <v>4.8851899999999998E-4</v>
+      </c>
+      <c r="O35" s="49">
+        <v>5.3272900000000002E-4</v>
+      </c>
+      <c r="P35" s="1"/>
+    </row>
+    <row r="36" spans="2:16">
+      <c r="B36" s="1"/>
+      <c r="C36" s="50">
+        <v>200</v>
+      </c>
+      <c r="D36" s="51">
+        <v>5</v>
+      </c>
+      <c r="E36" s="51">
+        <v>21</v>
+      </c>
+      <c r="F36" s="51">
+        <v>9.35643E-4</v>
+      </c>
+      <c r="G36" s="52">
+        <v>7.5488300000000003E-4</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="50">
+        <v>100</v>
+      </c>
+      <c r="L36" s="51">
+        <v>6</v>
+      </c>
+      <c r="M36" s="51">
+        <v>29</v>
+      </c>
+      <c r="N36" s="51">
+        <v>8.0550100000000003E-4</v>
+      </c>
+      <c r="O36" s="52">
+        <v>1.463598E-3</v>
+      </c>
+      <c r="P36" s="1"/>
+    </row>
+    <row r="37" spans="2:16">
+      <c r="B37" s="1"/>
+      <c r="C37" s="50">
+        <v>400</v>
+      </c>
+      <c r="D37" s="51">
+        <v>5</v>
+      </c>
+      <c r="E37" s="51">
+        <v>21</v>
+      </c>
+      <c r="F37" s="51">
+        <v>2.4683219999999998E-3</v>
+      </c>
+      <c r="G37" s="52">
+        <v>1.0383580000000001E-3</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="50">
+        <v>200</v>
+      </c>
+      <c r="L37" s="51">
+        <v>6</v>
+      </c>
+      <c r="M37" s="51">
+        <v>36</v>
+      </c>
+      <c r="N37" s="51">
+        <v>1.29328E-3</v>
+      </c>
+      <c r="O37" s="52">
+        <v>1.471787E-3</v>
+      </c>
+      <c r="P37" s="1"/>
+    </row>
+    <row r="38" spans="2:16">
+      <c r="B38" s="1"/>
+      <c r="C38" s="50">
+        <v>800</v>
+      </c>
+      <c r="D38" s="51">
+        <v>5</v>
+      </c>
+      <c r="E38" s="51">
+        <v>21</v>
+      </c>
+      <c r="F38" s="51">
+        <v>1.4531127E-2</v>
+      </c>
+      <c r="G38" s="52">
+        <v>2.6239129999999999E-3</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="50">
+        <v>400</v>
+      </c>
+      <c r="L38" s="51">
+        <v>7</v>
+      </c>
+      <c r="M38" s="51">
+        <v>43</v>
+      </c>
+      <c r="N38" s="51">
+        <v>2.8671619999999999E-3</v>
+      </c>
+      <c r="O38" s="52">
+        <v>2.0592789999999998E-3</v>
+      </c>
+      <c r="P38" s="1"/>
+    </row>
+    <row r="39" spans="2:16">
+      <c r="B39" s="1"/>
+      <c r="C39" s="50">
+        <v>1600</v>
+      </c>
+      <c r="D39" s="51">
+        <v>5</v>
+      </c>
+      <c r="E39" s="51">
+        <v>21</v>
+      </c>
+      <c r="F39" s="51">
+        <v>8.5933745000000006E-2</v>
+      </c>
+      <c r="G39" s="52">
+        <v>3.1013789999999999E-2</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="50">
+        <v>800</v>
+      </c>
+      <c r="L39" s="51">
+        <v>7</v>
+      </c>
+      <c r="M39" s="51">
+        <v>49</v>
+      </c>
+      <c r="N39" s="51">
+        <v>1.9386416E-2</v>
+      </c>
+      <c r="O39" s="52">
+        <v>6.6029360000000002E-3</v>
+      </c>
+      <c r="P39" s="1"/>
+    </row>
+    <row r="40" spans="2:16" ht="16" thickBot="1">
+      <c r="B40" s="1"/>
+      <c r="C40" s="53">
+        <v>3200</v>
+      </c>
+      <c r="D40" s="27">
+        <v>5</v>
+      </c>
+      <c r="E40" s="27">
+        <v>21</v>
+      </c>
+      <c r="F40" s="27">
+        <v>0.31611247799999997</v>
+      </c>
+      <c r="G40" s="54">
+        <v>0.12056457900000001</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="50">
+        <v>1600</v>
+      </c>
+      <c r="L40" s="51">
+        <v>7</v>
+      </c>
+      <c r="M40" s="51">
+        <v>56</v>
+      </c>
+      <c r="N40" s="51">
+        <v>0.115887958</v>
+      </c>
+      <c r="O40" s="52">
+        <v>8.0089572999999997E-2</v>
+      </c>
+      <c r="P40" s="1"/>
+    </row>
+    <row r="41" spans="2:16" ht="16" thickBot="1">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="53">
+        <v>3200</v>
+      </c>
+      <c r="L41" s="27">
+        <v>7</v>
+      </c>
+      <c r="M41" s="27">
+        <v>62</v>
+      </c>
+      <c r="N41" s="27">
+        <v>0.42786912900000001</v>
+      </c>
+      <c r="O41" s="54">
+        <v>0.32945909000000001</v>
+      </c>
+      <c r="P41" s="1"/>
+    </row>
+    <row r="42" spans="2:16">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+    </row>
+    <row r="43" spans="2:16" ht="16" thickBot="1">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+    </row>
+    <row r="44" spans="2:16" ht="16" thickBot="1">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="L44" s="46"/>
+      <c r="M44" s="46"/>
+      <c r="N44" s="46"/>
+      <c r="O44" s="47"/>
+      <c r="P44" s="1"/>
+    </row>
+    <row r="45" spans="2:16" ht="16" thickBot="1">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L45" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="M45" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="N45" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="O45" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="P45" s="1"/>
+    </row>
+    <row r="46" spans="2:16">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="48">
+        <v>50</v>
+      </c>
+      <c r="L46" s="22">
+        <v>8</v>
+      </c>
+      <c r="M46" s="22">
+        <v>32</v>
+      </c>
+      <c r="N46" s="22">
+        <v>5.6175500000000005E-4</v>
+      </c>
+      <c r="O46" s="49">
+        <v>6.1676500000000002E-4</v>
+      </c>
+      <c r="P46" s="1"/>
+    </row>
+    <row r="47" spans="2:16">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="50">
+        <v>100</v>
+      </c>
+      <c r="L47" s="51">
+        <v>7</v>
+      </c>
+      <c r="M47" s="51">
+        <v>41</v>
+      </c>
+      <c r="N47" s="51">
+        <v>7.6917900000000004E-4</v>
+      </c>
+      <c r="O47" s="52">
+        <v>1.1212139999999999E-3</v>
+      </c>
+      <c r="P47" s="1"/>
+    </row>
+    <row r="48" spans="2:16">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="50">
+        <v>200</v>
+      </c>
+      <c r="L48" s="51">
+        <v>7</v>
+      </c>
+      <c r="M48" s="51">
+        <v>61</v>
+      </c>
+      <c r="N48" s="51">
+        <v>1.229141E-3</v>
+      </c>
+      <c r="O48" s="52">
+        <v>2.0069469999999998E-3</v>
+      </c>
+      <c r="P48" s="1"/>
+    </row>
+    <row r="49" spans="2:16">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="50">
+        <v>400</v>
+      </c>
+      <c r="L49" s="51">
+        <v>8</v>
+      </c>
+      <c r="M49" s="51">
+        <v>83</v>
+      </c>
+      <c r="N49" s="51">
+        <v>3.5076230000000001E-3</v>
+      </c>
+      <c r="O49" s="52">
+        <v>4.0221440000000001E-3</v>
+      </c>
+      <c r="P49" s="1"/>
+    </row>
+    <row r="50" spans="2:16">
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="50">
+        <v>800</v>
+      </c>
+      <c r="L50" s="51">
+        <v>8</v>
+      </c>
+      <c r="M50" s="51">
+        <v>126</v>
+      </c>
+      <c r="N50" s="51">
+        <v>2.0692512E-2</v>
+      </c>
+      <c r="O50" s="52">
+        <v>1.2925167E-2</v>
+      </c>
+      <c r="P50" s="1"/>
+    </row>
+    <row r="51" spans="2:16">
+      <c r="D51" s="1">
+        <f>G18</f>
+        <v>0.1158532</v>
+      </c>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="50">
+        <v>1600</v>
+      </c>
+      <c r="L51" s="51">
+        <v>8</v>
+      </c>
+      <c r="M51" s="51">
+        <v>165</v>
+      </c>
+      <c r="N51" s="51">
+        <v>0.12610945200000001</v>
+      </c>
+      <c r="O51" s="52">
+        <v>0.21352580400000001</v>
+      </c>
+      <c r="P51" s="1"/>
+    </row>
+    <row r="52" spans="2:16" ht="16" thickBot="1">
+      <c r="D52" s="1">
+        <f>G20</f>
+        <v>0.47119647799999997</v>
+      </c>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="53">
+        <v>3200</v>
+      </c>
+      <c r="L52" s="27">
+        <v>8</v>
+      </c>
+      <c r="M52" s="27">
+        <v>207</v>
+      </c>
+      <c r="N52" s="27">
+        <v>0.47555136100000001</v>
+      </c>
+      <c r="O52" s="54">
+        <v>1.244652737</v>
+      </c>
+      <c r="P52" s="1"/>
+    </row>
+    <row r="53" spans="2:16">
+      <c r="D53" s="1">
+        <f>G22</f>
+        <v>0</v>
+      </c>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="44"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+    </row>
+    <row r="54" spans="2:16" ht="16" thickBot="1">
+      <c r="D54" s="1">
+        <f>G24</f>
+        <v>0</v>
+      </c>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="44"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+    </row>
+    <row r="55" spans="2:16" ht="16" thickBot="1">
+      <c r="D55" s="1">
+        <f>G26</f>
+        <v>0</v>
+      </c>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="L55" s="46"/>
+      <c r="M55" s="46"/>
+      <c r="N55" s="46"/>
+      <c r="O55" s="47"/>
+      <c r="P55" s="1"/>
+    </row>
+    <row r="56" spans="2:16" ht="16" thickBot="1">
+      <c r="D56" s="1">
+        <f>G28</f>
+        <v>0</v>
+      </c>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L56" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="M56" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="N56" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="O56" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="P56" s="1"/>
+    </row>
+    <row r="57" spans="2:16">
+      <c r="D57" s="1">
+        <f>G30</f>
+        <v>0</v>
+      </c>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="48">
+        <v>50</v>
+      </c>
+      <c r="L57" s="22">
+        <v>8</v>
+      </c>
+      <c r="M57" s="22">
+        <v>33</v>
+      </c>
+      <c r="N57" s="22">
+        <v>6.1875700000000005E-4</v>
+      </c>
+      <c r="O57" s="49">
+        <v>7.5493900000000004E-4</v>
+      </c>
+      <c r="P57" s="1"/>
+    </row>
+    <row r="58" spans="2:16">
+      <c r="D58" s="1">
+        <f>G17</f>
+        <v>0.211426208</v>
+      </c>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="50">
+        <v>100</v>
+      </c>
+      <c r="L58" s="51">
+        <v>7</v>
+      </c>
+      <c r="M58" s="51">
+        <v>48</v>
+      </c>
+      <c r="N58" s="51">
+        <v>8.0026499999999998E-4</v>
+      </c>
+      <c r="O58" s="52">
+        <v>1.653844E-3</v>
+      </c>
+      <c r="P58" s="1"/>
+    </row>
+    <row r="59" spans="2:16">
+      <c r="D59" s="1">
+        <f>G19</f>
+        <v>1.2431383119999999</v>
+      </c>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="50">
+        <v>200</v>
+      </c>
+      <c r="L59" s="51">
+        <v>7</v>
+      </c>
+      <c r="M59" s="51">
+        <v>66</v>
+      </c>
+      <c r="N59" s="51">
+        <v>1.232447E-3</v>
+      </c>
+      <c r="O59" s="52">
+        <v>2.2455729999999998E-3</v>
+      </c>
+      <c r="P59" s="1"/>
+    </row>
+    <row r="60" spans="2:16">
+      <c r="D60" s="1">
+        <f>G21</f>
+        <v>0</v>
+      </c>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="50">
+        <v>400</v>
+      </c>
+      <c r="L60" s="51">
+        <v>7</v>
+      </c>
+      <c r="M60" s="51">
+        <v>90</v>
+      </c>
+      <c r="N60" s="51">
+        <v>2.7853460000000002E-3</v>
+      </c>
+      <c r="O60" s="52">
+        <v>4.2941480000000002E-3</v>
+      </c>
+      <c r="P60" s="1"/>
+    </row>
+    <row r="61" spans="2:16">
+      <c r="D61" s="1">
+        <f>G23</f>
+        <v>0</v>
+      </c>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="50">
+        <v>800</v>
+      </c>
+      <c r="L61" s="51">
+        <v>7</v>
+      </c>
+      <c r="M61" s="51">
+        <v>136</v>
+      </c>
+      <c r="N61" s="51">
+        <v>1.8245726E-2</v>
+      </c>
+      <c r="O61" s="52">
+        <v>1.5915268999999999E-2</v>
+      </c>
+      <c r="P61" s="1"/>
+    </row>
+    <row r="62" spans="2:16">
+      <c r="D62" s="1">
+        <f>G25</f>
+        <v>0</v>
+      </c>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="50">
+        <v>1600</v>
+      </c>
+      <c r="L62" s="51">
+        <v>8</v>
+      </c>
+      <c r="M62" s="51">
+        <v>224</v>
+      </c>
+      <c r="N62" s="51">
+        <v>0.134216589</v>
+      </c>
+      <c r="O62" s="52">
+        <v>0.26337327999999999</v>
+      </c>
+      <c r="P62" s="1"/>
+    </row>
+    <row r="63" spans="2:16" ht="16" thickBot="1">
+      <c r="D63" s="1">
+        <f>G27</f>
+        <v>0</v>
+      </c>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="53">
+        <v>3200</v>
+      </c>
+      <c r="L63" s="27">
+        <v>7</v>
+      </c>
+      <c r="M63" s="27">
+        <v>265</v>
+      </c>
+      <c r="N63" s="27">
+        <v>0.48354597300000002</v>
+      </c>
+      <c r="O63" s="54">
+        <v>1.5855061699999999</v>
+      </c>
+      <c r="P63" s="1"/>
+    </row>
+    <row r="64" spans="2:16">
+      <c r="D64" s="1">
+        <f>G29</f>
+        <v>0</v>
+      </c>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="44"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+    </row>
+    <row r="65" spans="9:16">
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="44"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="K33:O33"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K55:O55"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -2939,15 +5126,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I29"/>
+  <dimension ref="A2:O29"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7:N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:15">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2958,7 +5154,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:15">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2969,7 +5165,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:15">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2984,7 +5180,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="16" thickBot="1">
+    <row r="5" spans="1:15" ht="16" thickBot="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2995,7 +5191,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="16" thickBot="1">
+    <row r="6" spans="1:15" ht="16" thickBot="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="8" t="s">
@@ -3016,7 +5212,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:15">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="12" t="s">
@@ -3037,7 +5233,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="16" thickBot="1">
+    <row r="8" spans="1:15" ht="16" thickBot="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2" t="s">
@@ -3057,8 +5253,14 @@
         <v>2.1371500000000001E-4</v>
       </c>
       <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" ht="16" thickBot="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="5" t="s">
@@ -3078,8 +5280,16 @@
         <v>3.0071699999999999E-4</v>
       </c>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" ht="16" thickBot="1">
+      <c r="J9" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" ht="16" thickBot="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="15" t="s">
@@ -3099,8 +5309,24 @@
         <v>9.13195E-4</v>
       </c>
       <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="12" t="s">
@@ -3120,8 +5346,24 @@
         <v>3.2740460000000001E-3</v>
       </c>
       <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" ht="16" thickBot="1">
+      <c r="J11" s="62">
+        <v>50</v>
+      </c>
+      <c r="K11" s="22">
+        <v>1</v>
+      </c>
+      <c r="L11" s="22">
+        <v>2</v>
+      </c>
+      <c r="M11" s="22">
+        <v>4.8749500000000001E-4</v>
+      </c>
+      <c r="N11" s="49">
+        <v>3.8306672999999999E-2</v>
+      </c>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" ht="16" thickBot="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
@@ -3141,8 +5383,24 @@
         <v>1.0590525E-2</v>
       </c>
       <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="57">
+        <v>100</v>
+      </c>
+      <c r="K12" s="51">
+        <v>1</v>
+      </c>
+      <c r="L12" s="51">
+        <v>2</v>
+      </c>
+      <c r="M12" s="51">
+        <v>4.1976399999999999E-4</v>
+      </c>
+      <c r="N12" s="52">
+        <v>5.6043424000000001E-2</v>
+      </c>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="5" t="s">
@@ -3158,8 +5416,24 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" ht="16" thickBot="1">
+      <c r="J13" s="57">
+        <v>200</v>
+      </c>
+      <c r="K13" s="51">
+        <v>1</v>
+      </c>
+      <c r="L13" s="51">
+        <v>2</v>
+      </c>
+      <c r="M13" s="51">
+        <v>5.1668700000000005E-4</v>
+      </c>
+      <c r="N13" s="52">
+        <v>4.6049899999999998E-2</v>
+      </c>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" ht="16" thickBot="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="15" t="s">
@@ -3175,8 +5449,24 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" s="57">
+        <v>400</v>
+      </c>
+      <c r="K14" s="51">
+        <v>1</v>
+      </c>
+      <c r="L14" s="51">
+        <v>2</v>
+      </c>
+      <c r="M14" s="51">
+        <v>1.1224920000000001E-3</v>
+      </c>
+      <c r="N14" s="52">
+        <v>5.4721165000000002E-2</v>
+      </c>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="12" t="s">
@@ -3192,8 +5482,24 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" ht="16" thickBot="1">
+      <c r="J15" s="57">
+        <v>800</v>
+      </c>
+      <c r="K15" s="51">
+        <v>1</v>
+      </c>
+      <c r="L15" s="51">
+        <v>2</v>
+      </c>
+      <c r="M15" s="51">
+        <v>6.8496470000000004E-3</v>
+      </c>
+      <c r="N15" s="52">
+        <v>7.5608574999999997E-2</v>
+      </c>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" ht="16" thickBot="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2" t="s">
@@ -3212,8 +5518,24 @@
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" s="57">
+        <v>1600</v>
+      </c>
+      <c r="K16" s="51">
+        <v>1</v>
+      </c>
+      <c r="L16" s="51">
+        <v>2</v>
+      </c>
+      <c r="M16" s="51">
+        <v>3.2159667000000003E-2</v>
+      </c>
+      <c r="N16" s="52">
+        <v>0.226161309</v>
+      </c>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" ht="16" thickBot="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="5" t="s">
@@ -3232,8 +5554,24 @@
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" ht="16" thickBot="1">
+      <c r="J17" s="63">
+        <v>3200</v>
+      </c>
+      <c r="K17" s="27">
+        <v>1</v>
+      </c>
+      <c r="L17" s="27">
+        <v>2</v>
+      </c>
+      <c r="M17" s="27">
+        <v>0.11401386500000001</v>
+      </c>
+      <c r="N17" s="54">
+        <v>1.1376215009999999</v>
+      </c>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" ht="16" thickBot="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="15" t="s">
@@ -3252,8 +5590,14 @@
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="12" t="s">
@@ -3272,8 +5616,14 @@
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" ht="16" thickBot="1">
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" ht="16" thickBot="1">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="2" t="s">
@@ -3293,7 +5643,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:15">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -3307,10 +5657,14 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:15">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -3321,7 +5675,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:15">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -3335,7 +5689,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:15">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -3349,7 +5703,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:15">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -3363,7 +5717,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:15">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -3377,7 +5731,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:15">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -3391,7 +5745,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:15">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -3404,7 +5758,7 @@
       </c>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:15">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -3419,6 +5773,9 @@
       <c r="I29" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J9:N9"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/Project/project 1/tables.xlsx
+++ b/Project/project 1/tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="21460" yWindow="500" windowWidth="28500" windowHeight="22200" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="21460" yWindow="500" windowWidth="28500" windowHeight="22200" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Strang1" sheetId="2" r:id="rId1"/>
@@ -1424,7 +1424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q56"/>
   <sheetViews>
-    <sheetView topLeftCell="H19" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="E21" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="N23" sqref="N23:N53"/>
     </sheetView>
   </sheetViews>
@@ -2988,8 +2988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8:K14"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3134,13 +3134,13 @@
         <v>1</v>
       </c>
       <c r="J8" s="22">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="K8" s="22">
-        <v>6.0182499999999995E-4</v>
+        <v>3.6935599999999999E-4</v>
       </c>
       <c r="L8" s="49">
-        <v>3.8306672999999999E-2</v>
+        <v>2.0654250000000001E-3</v>
       </c>
       <c r="M8" s="1"/>
     </row>
@@ -3165,13 +3165,13 @@
         <v>1</v>
       </c>
       <c r="J9" s="51">
-        <v>2</v>
+        <v>128</v>
       </c>
       <c r="K9" s="51">
-        <v>4.4920799999999999E-4</v>
+        <v>2.5782399999999998E-4</v>
       </c>
       <c r="L9" s="52">
-        <v>5.6043424000000001E-2</v>
+        <v>5.651115E-3</v>
       </c>
       <c r="M9" s="1"/>
     </row>
@@ -3196,13 +3196,13 @@
         <v>1</v>
       </c>
       <c r="J10" s="51">
-        <v>2</v>
+        <v>274</v>
       </c>
       <c r="K10" s="51">
-        <v>5.4530900000000001E-4</v>
+        <v>4.69347E-4</v>
       </c>
       <c r="L10" s="52">
-        <v>4.6049899999999998E-2</v>
+        <v>1.6995163000000001E-2</v>
       </c>
       <c r="M10" s="1"/>
     </row>
@@ -3227,13 +3227,13 @@
         <v>1</v>
       </c>
       <c r="J11" s="51">
-        <v>2</v>
+        <v>592</v>
       </c>
       <c r="K11" s="51">
-        <v>8.9222499999999996E-4</v>
+        <v>1.852011E-3</v>
       </c>
       <c r="L11" s="52">
-        <v>5.4721165000000002E-2</v>
+        <v>0.22097561800000001</v>
       </c>
       <c r="M11" s="1"/>
     </row>
@@ -3258,13 +3258,13 @@
         <v>1</v>
       </c>
       <c r="J12" s="51">
-        <v>2</v>
+        <v>1202</v>
       </c>
       <c r="K12" s="51">
-        <v>6.5365270000000003E-3</v>
+        <v>1.0599407999999999E-2</v>
       </c>
       <c r="L12" s="52">
-        <v>7.5608574999999997E-2</v>
+        <v>1.585321792</v>
       </c>
       <c r="M12" s="1"/>
     </row>
@@ -3289,13 +3289,13 @@
         <v>1</v>
       </c>
       <c r="J13" s="51">
-        <v>2</v>
+        <v>2450</v>
       </c>
       <c r="K13" s="51">
-        <v>3.1366864000000001E-2</v>
+        <v>5.7285457999999997E-2</v>
       </c>
       <c r="L13" s="52">
-        <v>0.226161309</v>
+        <v>13.870024492000001</v>
       </c>
       <c r="M13" s="1"/>
     </row>
@@ -3320,13 +3320,13 @@
         <v>1</v>
       </c>
       <c r="J14" s="27">
-        <v>2</v>
+        <v>4966</v>
       </c>
       <c r="K14" s="27">
-        <v>0.113667026</v>
+        <v>0.26720902800000002</v>
       </c>
       <c r="L14" s="54">
-        <v>1.1376215009999999</v>
+        <v>112.810704982</v>
       </c>
       <c r="M14" s="1"/>
     </row>
@@ -3368,11 +3368,17 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
+      <c r="K16" s="1">
+        <f>K9/K8</f>
+        <v>0.69803658259240398</v>
+      </c>
+      <c r="L16" s="1">
+        <f>K16/(2*LN(2))</f>
+        <v>0.5035269580325703</v>
+      </c>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:12">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="5" t="s">
@@ -3391,8 +3397,16 @@
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" ht="16" thickBot="1">
+      <c r="K17">
+        <f>K10/K9</f>
+        <v>1.8204162529477474</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" ref="L17:L21" si="0">K17/(2*LN(2))</f>
+        <v>1.3131527502406921</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="16" thickBot="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="15" t="s">
@@ -3411,8 +3425,16 @@
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="K18" s="1">
+        <f t="shared" ref="K18:K21" si="1">K11/K10</f>
+        <v>3.945931261944787</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="0"/>
+        <v>2.8463877316482367</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="12" t="s">
@@ -3431,8 +3453,16 @@
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" ht="16" thickBot="1">
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>5.7231884691829578</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="0"/>
+        <v>4.1284078112815754</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="16" thickBot="1">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="2" t="s">
@@ -3451,8 +3481,16 @@
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="K20" s="1">
+        <f t="shared" si="1"/>
+        <v>5.4045903318374009</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="0"/>
+        <v>3.8985878348891276</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -3465,8 +3503,16 @@
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>4.6645176163207083</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3647382166025475</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -3479,8 +3525,9 @@
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -3494,7 +3541,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:12">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -3507,8 +3554,9 @@
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -3522,7 +3570,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:12">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -3535,7 +3583,7 @@
       </c>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:12">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -3549,7 +3597,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:12">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -3563,7 +3611,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:12">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -3595,8 +3643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P65"/>
   <sheetViews>
-    <sheetView topLeftCell="E29" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45:O45"/>
+    <sheetView topLeftCell="E30" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5128,8 +5176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O29"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:N19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11:L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5353,13 +5401,13 @@
         <v>1</v>
       </c>
       <c r="L11" s="22">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="M11" s="22">
-        <v>4.8749500000000001E-4</v>
+        <v>2.0900500000000001E-4</v>
       </c>
       <c r="N11" s="49">
-        <v>3.8306672999999999E-2</v>
+        <v>2.0654250000000001E-3</v>
       </c>
       <c r="O11" s="1"/>
     </row>
@@ -5390,13 +5438,13 @@
         <v>1</v>
       </c>
       <c r="L12" s="51">
-        <v>2</v>
+        <v>128</v>
       </c>
       <c r="M12" s="51">
-        <v>4.1976399999999999E-4</v>
+        <v>2.9637799999999997E-4</v>
       </c>
       <c r="N12" s="52">
-        <v>5.6043424000000001E-2</v>
+        <v>5.651115E-3</v>
       </c>
       <c r="O12" s="1"/>
     </row>
@@ -5423,13 +5471,13 @@
         <v>1</v>
       </c>
       <c r="L13" s="51">
-        <v>2</v>
+        <v>274</v>
       </c>
       <c r="M13" s="51">
-        <v>5.1668700000000005E-4</v>
+        <v>8.9766900000000003E-4</v>
       </c>
       <c r="N13" s="52">
-        <v>4.6049899999999998E-2</v>
+        <v>1.6995163000000001E-2</v>
       </c>
       <c r="O13" s="1"/>
     </row>
@@ -5456,13 +5504,13 @@
         <v>1</v>
       </c>
       <c r="L14" s="51">
-        <v>2</v>
+        <v>592</v>
       </c>
       <c r="M14" s="51">
-        <v>1.1224920000000001E-3</v>
+        <v>2.1279279999999999E-3</v>
       </c>
       <c r="N14" s="52">
-        <v>5.4721165000000002E-2</v>
+        <v>0.22097561800000001</v>
       </c>
       <c r="O14" s="1"/>
     </row>
@@ -5489,13 +5537,13 @@
         <v>1</v>
       </c>
       <c r="L15" s="51">
-        <v>2</v>
+        <v>1202</v>
       </c>
       <c r="M15" s="51">
-        <v>6.8496470000000004E-3</v>
+        <v>1.1197851999999999E-2</v>
       </c>
       <c r="N15" s="52">
-        <v>7.5608574999999997E-2</v>
+        <v>1.585321792</v>
       </c>
       <c r="O15" s="1"/>
     </row>
@@ -5525,13 +5573,13 @@
         <v>1</v>
       </c>
       <c r="L16" s="51">
-        <v>2</v>
+        <v>2450</v>
       </c>
       <c r="M16" s="51">
-        <v>3.2159667000000003E-2</v>
+        <v>5.4131304999999998E-2</v>
       </c>
       <c r="N16" s="52">
-        <v>0.226161309</v>
+        <v>13.870024492000001</v>
       </c>
       <c r="O16" s="1"/>
     </row>
@@ -5561,13 +5609,13 @@
         <v>1</v>
       </c>
       <c r="L17" s="27">
-        <v>2</v>
+        <v>4966</v>
       </c>
       <c r="M17" s="27">
-        <v>0.11401386500000001</v>
+        <v>0.277730117</v>
       </c>
       <c r="N17" s="54">
-        <v>1.1376215009999999</v>
+        <v>112.810704982</v>
       </c>
       <c r="O17" s="1"/>
     </row>
